--- a/INPUT_data-template-empty.xlsx
+++ b/INPUT_data-template-empty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travnickovae\Documents\Faunistic_data_CZU\SPARSE - SPecies AcRoss ScalEs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://czuvpraze-my.sharepoint.com/personal/keil_fzp_czu_cz/Documents/SPARSE_1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7674C0E7-844E-48DF-A464-3C44D8085B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBFEB175-7BAA-47F1-809A-C1542A2733E7}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{7674C0E7-844E-48DF-A464-3C44D8085B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EC63FC3-D58E-4574-B313-9E19DAB76039}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{AB819B62-BE7F-4E43-90B4-563E4EEC716D}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="site" sheetId="2" r:id="rId3"/>
     <sheet name="event" sheetId="3" r:id="rId4"/>
     <sheet name="measurement" sheetId="4" r:id="rId5"/>
-    <sheet name="testing conditions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
   <si>
     <t>datasetID</t>
   </si>
@@ -208,7 +207,7 @@
     <t>shapefileNameID</t>
   </si>
   <si>
-    <t>shapefileFID</t>
+    <t>objectID</t>
   </si>
   <si>
     <t>centroidDecimalLatitude</t>
@@ -422,120 +421,6 @@
   </si>
   <si>
     <t>measurementRemarks</t>
-  </si>
-  <si>
-    <t>byte</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>Stores numbers from -32.768 to 32.767 (no fractions).</t>
-  </si>
-  <si>
-    <t>long integer</t>
-  </si>
-  <si>
-    <t>(Default) Stores numbers from -2.147.483.648 to 2.147.483.647 (no fractions).</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>Stores numbers from -3,402823E38 to -1,401298E-45 for negative values and from 1,401298E-45 to 3,402823E38 for positive values.</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>-1.79769313486231570E+308</t>
-  </si>
-  <si>
-    <t>1.79769313486231E+308</t>
-  </si>
-  <si>
-    <t>Stores numbers from -1.79769313486231E308 to -4.94065645841247E-324 for negative values and from 4.94065645841247E-324 to 1.79769313486231E308 for positive values.</t>
-  </si>
-  <si>
-    <t>short text lenght</t>
-  </si>
-  <si>
-    <t>long text lenght</t>
-  </si>
-  <si>
-    <t>DATASET</t>
-  </si>
-  <si>
-    <t>column name</t>
-  </si>
-  <si>
-    <t>field size</t>
-  </si>
-  <si>
-    <t>255 characters</t>
-  </si>
-  <si>
-    <t>65,535 characters</t>
-  </si>
-  <si>
-    <t>short date</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>not null</t>
-  </si>
-  <si>
-    <t>duplicity</t>
-  </si>
-  <si>
-    <t>no duplicity</t>
-  </si>
-  <si>
-    <t>value in range</t>
-  </si>
-  <si>
-    <t>range - open CB</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>protectedAreaTypeID</t>
-  </si>
-  <si>
-    <t>single or double</t>
-  </si>
-  <si>
-    <t>True or False</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>range 0-100%</t>
-  </si>
-  <si>
-    <t>EVENT</t>
-  </si>
-  <si>
-    <t>short time</t>
-  </si>
-  <si>
-    <t>range - month or no value</t>
-  </si>
-  <si>
-    <t>range - day or no value</t>
-  </si>
-  <si>
-    <t>MEASUREMENT</t>
   </si>
 </sst>
 </file>
@@ -543,10 +428,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,26 +555,13 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,14 +603,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -762,15 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFD0D7E5"/>
       </left>
@@ -790,10 +647,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -865,18 +722,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
@@ -896,86 +753,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -1533,34 +1310,34 @@
       </c>
     </row>
     <row r="3" spans="1:18" hidden="1">
-      <c r="E3" s="76" t="str">
+      <c r="E3" s="46" t="str">
         <f>IF(E2&gt;0,"OK","PROBLEM")</f>
         <v>PROBLEM</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="76" t="str">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="46" t="str">
         <f>IF(J2&gt;0,"OK","PROBLEM")</f>
         <v>PROBLEM</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="76" t="str">
+      <c r="K3" s="47"/>
+      <c r="L3" s="46" t="str">
         <f>IF(L2&gt;0,"OK","PROBLEM")</f>
         <v>PROBLEM</v>
       </c>
-      <c r="M3" s="77"/>
-      <c r="N3" s="76" t="str">
+      <c r="M3" s="47"/>
+      <c r="N3" s="46" t="str">
         <f>IF(N2&gt;0,"OK","PROBLEM")</f>
         <v>PROBLEM</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="76" t="str">
+      <c r="O3" s="47"/>
+      <c r="P3" s="46" t="str">
         <f>IF(P2&gt;0,"OK","PROBLEM")</f>
         <v>PROBLEM</v>
       </c>
-      <c r="Q3" s="76" t="str">
+      <c r="Q3" s="46" t="str">
         <f>IF(Q2&gt;0,"OK","PROBLEM")</f>
         <v>PROBLEM</v>
       </c>
@@ -1652,23 +1429,23 @@
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="78" t="str">
+      <c r="E8" s="48" t="str">
         <f>IF((E$6-E$7)&lt;0,"PROBLEM","OK")</f>
         <v>OK</v>
       </c>
-      <c r="J8" s="78" t="str">
+      <c r="J8" s="48" t="str">
         <f>IF((J$6-J$7)&lt;0,"PROBLEM","OK")</f>
         <v>OK</v>
       </c>
-      <c r="L8" s="78" t="str">
+      <c r="L8" s="48" t="str">
         <f>IF((L$6-L$7)&lt;0,"PROBLEM","OK")</f>
         <v>OK</v>
       </c>
-      <c r="P8" s="78" t="str">
+      <c r="P8" s="48" t="str">
         <f>IF((P$6-P$7)&lt;0,"PROBLEM","OK")</f>
         <v>OK</v>
       </c>
-      <c r="Q8" s="78" t="str">
+      <c r="Q8" s="48" t="str">
         <f>IF((Q$6-Q$7)&lt;0,"PROBLEM","OK")</f>
         <v>OK</v>
       </c>
@@ -1740,14 +1517,14 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="84">
+      <c r="A11" s="54">
         <f>accessID!$B$4+1</f>
         <v>1</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -1755,9 +1532,9 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="N11"/>
-      <c r="O11" s="81">
+      <c r="O11" s="51">
         <f ca="1">TODAY()</f>
-        <v>45014</v>
+        <v>45051</v>
       </c>
       <c r="P11"/>
       <c r="Q11"/>
@@ -1821,7 +1598,7 @@
   <dimension ref="A1:AS77"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.6"/>
@@ -1953,35 +1730,35 @@
       <c r="D3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="76" t="str">
+      <c r="I3" s="46" t="str">
         <f>IF(I2&gt;0,"OK","PROBLEM")</f>
         <v>OK</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="76" t="str">
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="46" t="str">
         <f>IF(O2&gt;0,"OK","PROBLEM")</f>
         <v>PROBLEM</v>
       </c>
-      <c r="P3" s="76" t="str">
+      <c r="P3" s="46" t="str">
         <f>IF(P2&gt;0,"OK","PROBLEM")</f>
         <v>PROBLEM</v>
       </c>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="76"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="46"/>
     </row>
     <row r="4" spans="1:45" hidden="1">
       <c r="A4" s="32">
@@ -2006,10 +1783,10 @@
       <c r="AB4" s="24"/>
     </row>
     <row r="5" spans="1:45" hidden="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="36">
         <f>(accessID!$C$4*site!$C$2+$A$4)-$C$4</f>
         <v>0</v>
@@ -2098,36 +1875,36 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="78" t="str">
+      <c r="I8" s="48" t="str">
         <f>IF((I$6-I$7)&lt;0,"PROBLEM","OK")</f>
         <v>OK</v>
       </c>
-      <c r="O8" s="78" t="str">
+      <c r="O8" s="48" t="str">
         <f>IF((O$6-O$7)&lt;0,"PROBLEM","OK")</f>
         <v>OK</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="78" t="str">
+      <c r="AA8" s="48" t="str">
         <f>IF((AA$6-AA$7)&lt;0,"PROBLEM","OK")</f>
         <v>OK</v>
       </c>
-      <c r="AB8" s="78"/>
+      <c r="AB8" s="48"/>
     </row>
     <row r="9" spans="1:45" hidden="1">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="AA9" s="86" t="s">
+      <c r="D9" s="55"/>
+      <c r="AA9" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="AB9" s="86"/>
+      <c r="AB9" s="56"/>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="40" t="s">
@@ -2270,7 +2047,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="82"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="32">
         <f>accessID!$C$4+$A11</f>
         <v>1</v>
@@ -2357,7 +2134,7 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="83"/>
+      <c r="N13" s="53"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Y13"/>
@@ -2391,7 +2168,7 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="83"/>
+      <c r="N14" s="53"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Y14"/>
@@ -2425,7 +2202,7 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="83"/>
+      <c r="N15" s="53"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Y15"/>
@@ -2459,7 +2236,7 @@
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-      <c r="N16" s="83"/>
+      <c r="N16" s="53"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Y16"/>
@@ -2493,7 +2270,7 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="83"/>
+      <c r="N17" s="53"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Y17"/>
@@ -2527,7 +2304,7 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="83"/>
+      <c r="N18" s="53"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Y18"/>
@@ -2561,7 +2338,7 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19" s="83"/>
+      <c r="N19" s="53"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Y19"/>
@@ -2595,7 +2372,7 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="N20" s="83"/>
+      <c r="N20" s="53"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Y20"/>
@@ -2629,7 +2406,7 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="N21" s="83"/>
+      <c r="N21" s="53"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Y21"/>
@@ -2663,7 +2440,7 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22" s="83"/>
+      <c r="N22" s="53"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Y22"/>
@@ -2697,7 +2474,7 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23" s="83"/>
+      <c r="N23" s="53"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Y23"/>
@@ -2731,7 +2508,7 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24" s="83"/>
+      <c r="N24" s="53"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Y24"/>
@@ -2765,7 +2542,7 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-      <c r="N25" s="83"/>
+      <c r="N25" s="53"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Y25"/>
@@ -2799,7 +2576,7 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="N26" s="83"/>
+      <c r="N26" s="53"/>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Y26"/>
@@ -2833,7 +2610,7 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-      <c r="N27" s="83"/>
+      <c r="N27" s="53"/>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Y27"/>
@@ -2867,7 +2644,7 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="N28" s="83"/>
+      <c r="N28" s="53"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Y28"/>
@@ -2901,7 +2678,7 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-      <c r="N29" s="83"/>
+      <c r="N29" s="53"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Y29"/>
@@ -2935,7 +2712,7 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-      <c r="N30" s="83"/>
+      <c r="N30" s="53"/>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Y30"/>
@@ -2969,7 +2746,7 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-      <c r="N31" s="83"/>
+      <c r="N31" s="53"/>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Y31"/>
@@ -3003,7 +2780,7 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-      <c r="N32" s="83"/>
+      <c r="N32" s="53"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Y32"/>
@@ -3037,7 +2814,7 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-      <c r="N33" s="83"/>
+      <c r="N33" s="53"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Y33"/>
@@ -3071,7 +2848,7 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-      <c r="N34" s="83"/>
+      <c r="N34" s="53"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Y34"/>
@@ -3105,7 +2882,7 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-      <c r="N35" s="83"/>
+      <c r="N35" s="53"/>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Y35"/>
@@ -3139,7 +2916,7 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-      <c r="N36" s="83"/>
+      <c r="N36" s="53"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Y36"/>
@@ -3173,7 +2950,7 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
-      <c r="N37" s="83"/>
+      <c r="N37" s="53"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Y37"/>
@@ -3207,7 +2984,7 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-      <c r="N38" s="83"/>
+      <c r="N38" s="53"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Y38"/>
@@ -3241,7 +3018,7 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-      <c r="N39" s="83"/>
+      <c r="N39" s="53"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Y39"/>
@@ -3275,7 +3052,7 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
-      <c r="N40" s="83"/>
+      <c r="N40" s="53"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Y40"/>
@@ -3309,7 +3086,7 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
-      <c r="N41" s="83"/>
+      <c r="N41" s="53"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Y41"/>
@@ -3343,7 +3120,7 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
-      <c r="N42" s="83"/>
+      <c r="N42" s="53"/>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Y42"/>
@@ -3377,7 +3154,7 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
-      <c r="N43" s="83"/>
+      <c r="N43" s="53"/>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Y43"/>
@@ -3411,7 +3188,7 @@
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
-      <c r="N44" s="83"/>
+      <c r="N44" s="53"/>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Y44"/>
@@ -3445,7 +3222,7 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
-      <c r="N45" s="83"/>
+      <c r="N45" s="53"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Y45"/>
@@ -3479,7 +3256,7 @@
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46" s="83"/>
+      <c r="N46" s="53"/>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Y46"/>
@@ -3513,7 +3290,7 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
-      <c r="N47" s="83"/>
+      <c r="N47" s="53"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Y47"/>
@@ -3547,7 +3324,7 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
-      <c r="N48" s="83"/>
+      <c r="N48" s="53"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Y48"/>
@@ -3581,7 +3358,7 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
-      <c r="N49" s="83"/>
+      <c r="N49" s="53"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Y49"/>
@@ -3615,7 +3392,7 @@
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
-      <c r="N50" s="83"/>
+      <c r="N50" s="53"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Y50"/>
@@ -3649,7 +3426,7 @@
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
-      <c r="N51" s="83"/>
+      <c r="N51" s="53"/>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Y51"/>
@@ -3683,7 +3460,7 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
-      <c r="N52" s="83"/>
+      <c r="N52" s="53"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Y52"/>
@@ -3717,7 +3494,7 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
-      <c r="N53" s="83"/>
+      <c r="N53" s="53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Y53"/>
@@ -3751,7 +3528,7 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
-      <c r="N54" s="83"/>
+      <c r="N54" s="53"/>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Y54"/>
@@ -3785,7 +3562,7 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
-      <c r="N55" s="83"/>
+      <c r="N55" s="53"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Y55"/>
@@ -3819,7 +3596,7 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
-      <c r="N56" s="83"/>
+      <c r="N56" s="53"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Y56"/>
@@ -3853,7 +3630,7 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
-      <c r="N57" s="83"/>
+      <c r="N57" s="53"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Y57"/>
@@ -3887,7 +3664,7 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
-      <c r="N58" s="83"/>
+      <c r="N58" s="53"/>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Y58"/>
@@ -3921,7 +3698,7 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
-      <c r="N59" s="83"/>
+      <c r="N59" s="53"/>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Y59"/>
@@ -3955,7 +3732,7 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
-      <c r="N60" s="83"/>
+      <c r="N60" s="53"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Y60"/>
@@ -3989,7 +3766,7 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
-      <c r="N61" s="83"/>
+      <c r="N61" s="53"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Y61"/>
@@ -4023,7 +3800,7 @@
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
-      <c r="N62" s="83"/>
+      <c r="N62" s="53"/>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Y62"/>
@@ -4057,7 +3834,7 @@
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
-      <c r="N63" s="83"/>
+      <c r="N63" s="53"/>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Y63"/>
@@ -4091,7 +3868,7 @@
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
-      <c r="N64" s="83"/>
+      <c r="N64" s="53"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Y64"/>
@@ -4125,7 +3902,7 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
-      <c r="N65" s="83"/>
+      <c r="N65" s="53"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Y65"/>
@@ -4159,7 +3936,7 @@
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
-      <c r="N66" s="83"/>
+      <c r="N66" s="53"/>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Y66"/>
@@ -4193,7 +3970,7 @@
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
-      <c r="N67" s="83"/>
+      <c r="N67" s="53"/>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Y67"/>
@@ -4227,7 +4004,7 @@
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
-      <c r="N68" s="83"/>
+      <c r="N68" s="53"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Y68"/>
@@ -4261,7 +4038,7 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
-      <c r="N69" s="83"/>
+      <c r="N69" s="53"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Y69"/>
@@ -4295,7 +4072,7 @@
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
-      <c r="N70" s="83"/>
+      <c r="N70" s="53"/>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Y70"/>
@@ -4329,7 +4106,7 @@
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
-      <c r="N71" s="83"/>
+      <c r="N71" s="53"/>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Y71"/>
@@ -4363,7 +4140,7 @@
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
-      <c r="N72" s="83"/>
+      <c r="N72" s="53"/>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Y72"/>
@@ -4736,19 +4513,19 @@
       <c r="E3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="76" t="str">
+      <c r="Q3" s="46" t="str">
         <f>IF(Q2&gt;0,"OK","PROBLEM")</f>
         <v>PROBLEM</v>
       </c>
-      <c r="V3" s="76" t="str">
+      <c r="V3" s="46" t="str">
         <f>IF(V2&gt;0,"OK","PROBLEM")</f>
         <v>PROBLEM</v>
       </c>
-      <c r="AB3" s="76" t="str">
+      <c r="AB3" s="46" t="str">
         <f>IF(AB2&gt;-1,"OK","PROBLEM")</f>
         <v>OK</v>
       </c>
-      <c r="AC3" s="76" t="str">
+      <c r="AC3" s="46" t="str">
         <f>IF(AC2&gt;0,"OK","PROBLEM")</f>
         <v>PROBLEM</v>
       </c>
@@ -4886,39 +4663,39 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="Q8" s="78" t="str">
+      <c r="Q8" s="48" t="str">
         <f>IF((Q$6-Q$7)&lt;0,"PROBLEM","OK")</f>
         <v>OK</v>
       </c>
-      <c r="V8" s="78" t="str">
+      <c r="V8" s="48" t="str">
         <f>IF((V$6-V$7)&lt;0,"PROBLEM","OK")</f>
         <v>OK</v>
       </c>
-      <c r="AB8" s="78" t="str">
+      <c r="AB8" s="48" t="str">
         <f>IF((AB$6-AB$7)&lt;0,"PROBLEM","OK")</f>
         <v>OK</v>
       </c>
-      <c r="AC8" s="78" t="str">
+      <c r="AC8" s="48" t="str">
         <f>IF((AC$6-AC$7)&lt;0,"PROBLEM","OK")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="9" spans="1:38" hidden="1">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="AB9" s="86" t="s">
+      <c r="AB9" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" s="86"/>
+      <c r="AC9" s="56"/>
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="40" t="s">
@@ -5246,7 +5023,7 @@
       <c r="G3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="76" t="str">
+      <c r="N3" s="46" t="str">
         <f>IF(N2&gt;0,"OK","PROBLEM")</f>
         <v>PROBLEM</v>
       </c>
@@ -5353,23 +5130,23 @@
       </c>
     </row>
     <row r="8" spans="1:16" hidden="1">
-      <c r="N8" s="78" t="str">
+      <c r="N8" s="48" t="str">
         <f>IF((N$6-N$7)&lt;0,"PROBLEM","OK")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="9" spans="1:16" hidden="1">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="40" t="s">
@@ -7967,2157 +7744,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC19E3AF-8E5A-43F6-82C9-BAEA5DACC63A}">
-  <dimension ref="A1:AR68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26" style="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="8.7109375" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="59"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="B2" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="59">
-        <v>0</v>
-      </c>
-      <c r="D2" s="59">
-        <v>255</v>
-      </c>
-      <c r="E2" s="59"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="B3" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="61">
-        <v>-32768</v>
-      </c>
-      <c r="D3" s="61">
-        <v>32767</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="B4" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="62">
-        <v>-2147483648</v>
-      </c>
-      <c r="D4" s="62">
-        <v>2147483647</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="B5" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="58">
-        <v>-3.402823E+44</v>
-      </c>
-      <c r="D5" s="58">
-        <v>3.402823E+44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="B6" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="61">
-        <v>0</v>
-      </c>
-      <c r="D7" s="61">
-        <v>255</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="B8" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="61">
-        <v>0</v>
-      </c>
-      <c r="D8" s="61">
-        <v>65535</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="17.45" customHeight="1"/>
-    <row r="10" spans="1:18" ht="17.45" customHeight="1"/>
-    <row r="11" spans="1:18" ht="17.45" customHeight="1">
-      <c r="A11" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-    </row>
-    <row r="12" spans="1:18" ht="17.45" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="17.45" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="L13" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="N13" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="O13" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="P13" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="R13" s="47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="30" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A14" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="55">
-        <v>1</v>
-      </c>
-      <c r="C14" s="67">
-        <v>1</v>
-      </c>
-      <c r="D14" s="67">
-        <v>1</v>
-      </c>
-      <c r="E14" s="67">
-        <v>0</v>
-      </c>
-      <c r="F14" s="56">
-        <v>1</v>
-      </c>
-      <c r="G14" s="67">
-        <v>0</v>
-      </c>
-      <c r="H14" s="67">
-        <v>1</v>
-      </c>
-      <c r="I14" s="67">
-        <v>0</v>
-      </c>
-      <c r="J14" s="67">
-        <v>0</v>
-      </c>
-      <c r="K14" s="56">
-        <v>1</v>
-      </c>
-      <c r="L14" s="67">
-        <v>0</v>
-      </c>
-      <c r="M14" s="56">
-        <v>1</v>
-      </c>
-      <c r="N14" s="67">
-        <v>1</v>
-      </c>
-      <c r="O14" s="67">
-        <v>1</v>
-      </c>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="56">
-        <v>1</v>
-      </c>
-      <c r="R14" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="30" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A15" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="62">
-        <v>2147483647</v>
-      </c>
-      <c r="C15" s="67">
-        <v>255</v>
-      </c>
-      <c r="D15" s="61">
-        <v>65535</v>
-      </c>
-      <c r="E15" s="67">
-        <v>255</v>
-      </c>
-      <c r="F15" s="56">
-        <v>8</v>
-      </c>
-      <c r="G15" s="67">
-        <v>255</v>
-      </c>
-      <c r="H15" s="61">
-        <v>65535</v>
-      </c>
-      <c r="I15" s="67">
-        <v>255</v>
-      </c>
-      <c r="J15" s="61">
-        <v>65535</v>
-      </c>
-      <c r="K15" s="56">
-        <v>24</v>
-      </c>
-      <c r="L15" s="61">
-        <v>65535</v>
-      </c>
-      <c r="M15" s="56">
-        <v>4</v>
-      </c>
-      <c r="N15" s="67">
-        <v>255</v>
-      </c>
-      <c r="O15" s="67">
-        <v>255</v>
-      </c>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="56">
-        <v>6</v>
-      </c>
-      <c r="R15" s="56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="17.45" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44" ht="17.45" customHeight="1"/>
-    <row r="20" spans="1:44" ht="17.45" customHeight="1">
-      <c r="D20" s="51"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-    </row>
-    <row r="21" spans="1:44" ht="17.45" customHeight="1">
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-    </row>
-    <row r="22" spans="1:44" ht="17.45" customHeight="1"/>
-    <row r="23" spans="1:44" ht="17.45" customHeight="1"/>
-    <row r="24" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A24" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="64"/>
-      <c r="AH24" s="64"/>
-      <c r="AI24" s="64"/>
-      <c r="AJ24" s="64"/>
-      <c r="AK24" s="64"/>
-      <c r="AL24" s="64"/>
-      <c r="AM24" s="64"/>
-      <c r="AN24" s="64"/>
-      <c r="AO24" s="64"/>
-      <c r="AP24" s="64"/>
-      <c r="AQ24" s="64"/>
-      <c r="AR24" s="64"/>
-    </row>
-    <row r="25" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A25" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z25" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA25" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR25" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="J26" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="K26" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="L26" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="M26" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="N26" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="O26" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="P26" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q26" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="R26" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="S26" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="T26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="U26" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="V26" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="W26" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="X26" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y26" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z26" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA26" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB26" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC26" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR26" s="49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:44" s="30" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A27" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="55">
-        <v>1</v>
-      </c>
-      <c r="C27" s="56">
-        <v>1</v>
-      </c>
-      <c r="D27" s="56">
-        <v>1</v>
-      </c>
-      <c r="E27" s="67">
-        <v>0</v>
-      </c>
-      <c r="F27" s="55">
-        <v>1</v>
-      </c>
-      <c r="G27" s="67">
-        <v>1</v>
-      </c>
-      <c r="H27" s="55">
-        <v>1</v>
-      </c>
-      <c r="I27" s="55">
-        <v>0</v>
-      </c>
-      <c r="J27" s="55">
-        <v>0</v>
-      </c>
-      <c r="K27" s="55">
-        <v>1</v>
-      </c>
-      <c r="L27" s="55">
-        <v>0</v>
-      </c>
-      <c r="M27" s="55">
-        <v>0</v>
-      </c>
-      <c r="N27" s="55">
-        <v>1</v>
-      </c>
-      <c r="O27" s="55">
-        <v>1</v>
-      </c>
-      <c r="P27" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="55">
-        <v>0</v>
-      </c>
-      <c r="T27" s="55">
-        <v>0</v>
-      </c>
-      <c r="U27" s="55">
-        <v>0</v>
-      </c>
-      <c r="V27" s="67">
-        <v>0</v>
-      </c>
-      <c r="W27" s="67">
-        <v>0</v>
-      </c>
-      <c r="X27" s="57">
-        <v>-10994</v>
-      </c>
-      <c r="Y27" s="57">
-        <v>-10994</v>
-      </c>
-      <c r="Z27" s="68">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="55">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:44" s="30" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A28" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="62">
-        <v>2147483647</v>
-      </c>
-      <c r="C28" s="62">
-        <v>2147483647</v>
-      </c>
-      <c r="D28" s="62">
-        <v>2147483647</v>
-      </c>
-      <c r="E28" s="67">
-        <v>255</v>
-      </c>
-      <c r="F28" s="55">
-        <v>255</v>
-      </c>
-      <c r="G28" s="67">
-        <v>255</v>
-      </c>
-      <c r="H28" s="55">
-        <v>894</v>
-      </c>
-      <c r="I28" s="67">
-        <v>255</v>
-      </c>
-      <c r="J28" s="67">
-        <v>255</v>
-      </c>
-      <c r="K28" s="61">
-        <v>65535</v>
-      </c>
-      <c r="L28" s="61">
-        <v>65535</v>
-      </c>
-      <c r="M28" s="58">
-        <v>3.402823E+44</v>
-      </c>
-      <c r="N28" s="55">
-        <v>3</v>
-      </c>
-      <c r="O28" s="55">
-        <v>3</v>
-      </c>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="67">
-        <v>255</v>
-      </c>
-      <c r="T28" s="74"/>
-      <c r="U28" s="67">
-        <v>255</v>
-      </c>
-      <c r="V28" s="67">
-        <v>255</v>
-      </c>
-      <c r="W28" s="61">
-        <v>65535</v>
-      </c>
-      <c r="X28" s="57">
-        <v>8849</v>
-      </c>
-      <c r="Y28" s="57">
-        <v>8849</v>
-      </c>
-      <c r="Z28" s="68">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="55">
-        <v>8</v>
-      </c>
-      <c r="AB28" s="61">
-        <v>65535</v>
-      </c>
-      <c r="AC28" s="61">
-        <v>65535</v>
-      </c>
-      <c r="AD28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AE28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AF28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AG28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AH28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AI28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AJ28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AK28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AL28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AM28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AN28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AO28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AP28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AQ28" s="55">
-        <v>100</v>
-      </c>
-      <c r="AR28" s="55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z29" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A30" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A31" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR31" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:44" ht="17.45" customHeight="1"/>
-    <row r="33" spans="1:44" ht="17.45" customHeight="1">
-      <c r="B33" s="52"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="14"/>
-      <c r="AM33" s="14"/>
-      <c r="AN33" s="14"/>
-      <c r="AO33" s="14"/>
-      <c r="AP33" s="14"/>
-      <c r="AQ33" s="14"/>
-      <c r="AR33" s="14"/>
-    </row>
-    <row r="34" spans="1:44" ht="17.45" customHeight="1"/>
-    <row r="35" spans="1:44" ht="17.45" customHeight="1"/>
-    <row r="36" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A36" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
-      <c r="AA36" s="64"/>
-      <c r="AB36" s="64"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="64"/>
-      <c r="AH36" s="64"/>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="64"/>
-      <c r="AK36" s="64"/>
-    </row>
-    <row r="37" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A37" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P37" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U37" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="W37" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="X37" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y37" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z37" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA37" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB37" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC37" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD37" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF37" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG37" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH37" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI37" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK37" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A38" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="I38" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="J38" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="K38" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="L38" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="M38" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="N38" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="O38" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="P38" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q38" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="R38" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="S38" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="T38" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="U38" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="V38" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="W38" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="X38" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y38" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z38" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA38" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB38" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC38" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD38" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE38" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF38" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG38" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH38" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI38" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ38" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK38" s="46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:44" s="30" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A39" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="55">
-        <v>1</v>
-      </c>
-      <c r="C39" s="56">
-        <v>1</v>
-      </c>
-      <c r="D39" s="56">
-        <v>1</v>
-      </c>
-      <c r="E39" s="56">
-        <v>1900</v>
-      </c>
-      <c r="F39" s="56">
-        <v>0</v>
-      </c>
-      <c r="G39" s="56">
-        <v>0</v>
-      </c>
-      <c r="H39" s="56">
-        <v>1900</v>
-      </c>
-      <c r="I39" s="56">
-        <v>0</v>
-      </c>
-      <c r="J39" s="56">
-        <v>0</v>
-      </c>
-      <c r="K39" s="67">
-        <v>0</v>
-      </c>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="57">
-        <v>0</v>
-      </c>
-      <c r="O39" s="67">
-        <v>0</v>
-      </c>
-      <c r="P39" s="67">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="67">
-        <v>0</v>
-      </c>
-      <c r="R39" s="67">
-        <v>0</v>
-      </c>
-      <c r="S39" s="67">
-        <v>0</v>
-      </c>
-      <c r="T39" s="67">
-        <v>0</v>
-      </c>
-      <c r="U39" s="67">
-        <v>1</v>
-      </c>
-      <c r="V39" s="67">
-        <v>0</v>
-      </c>
-      <c r="W39" s="67">
-        <v>0</v>
-      </c>
-      <c r="X39" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="68">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="68">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="67">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="56">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="56">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="56">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="56">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="56">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="56">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="67">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:44" s="30" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A40" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="62">
-        <v>2147483647</v>
-      </c>
-      <c r="C40" s="62">
-        <v>2147483647</v>
-      </c>
-      <c r="D40" s="62">
-        <v>2147483647</v>
-      </c>
-      <c r="E40" s="56">
-        <v>2100</v>
-      </c>
-      <c r="F40" s="56">
-        <v>12</v>
-      </c>
-      <c r="G40" s="56">
-        <v>31</v>
-      </c>
-      <c r="H40" s="56">
-        <v>2100</v>
-      </c>
-      <c r="I40" s="56">
-        <v>12</v>
-      </c>
-      <c r="J40" s="56">
-        <v>31</v>
-      </c>
-      <c r="K40" s="67">
-        <v>255</v>
-      </c>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="61">
-        <v>32767</v>
-      </c>
-      <c r="O40" s="58">
-        <v>3.402823E+44</v>
-      </c>
-      <c r="P40" s="67">
-        <v>7</v>
-      </c>
-      <c r="Q40" s="67">
-        <v>4</v>
-      </c>
-      <c r="R40" s="61">
-        <v>65535</v>
-      </c>
-      <c r="S40" s="67">
-        <v>255</v>
-      </c>
-      <c r="T40" s="61">
-        <v>65535</v>
-      </c>
-      <c r="U40" s="67">
-        <v>19</v>
-      </c>
-      <c r="V40" s="61">
-        <v>65535</v>
-      </c>
-      <c r="W40" s="46">
-        <v>255</v>
-      </c>
-      <c r="X40" s="61">
-        <v>65535</v>
-      </c>
-      <c r="Y40" s="68">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="68">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="68">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="67">
-        <v>5</v>
-      </c>
-      <c r="AC40" s="58">
-        <v>3.402823E+44</v>
-      </c>
-      <c r="AD40" s="67">
-        <v>255</v>
-      </c>
-      <c r="AE40" s="67">
-        <v>255</v>
-      </c>
-      <c r="AF40" s="56">
-        <v>7</v>
-      </c>
-      <c r="AG40" s="56">
-        <v>7</v>
-      </c>
-      <c r="AH40" s="67">
-        <v>255</v>
-      </c>
-      <c r="AI40" s="67">
-        <v>255</v>
-      </c>
-      <c r="AJ40" s="67">
-        <v>255</v>
-      </c>
-      <c r="AK40" s="67">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A41" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="P41" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="U41" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y41" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z41" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA41" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH41" s="46"/>
-      <c r="AI41" s="46"/>
-      <c r="AJ41" s="46"/>
-      <c r="AK41" s="46"/>
-    </row>
-    <row r="42" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A42" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="M43" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="P43" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q43" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="U43" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB43" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF43" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG43" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:44" ht="17.45" customHeight="1"/>
-    <row r="45" spans="1:44" ht="17.45" customHeight="1">
-      <c r="B45" s="52"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="14"/>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="14"/>
-      <c r="AC45" s="14"/>
-      <c r="AD45" s="14"/>
-      <c r="AE45" s="14"/>
-      <c r="AF45" s="14"/>
-      <c r="AG45" s="14"/>
-      <c r="AH45" s="14"/>
-      <c r="AI45" s="14"/>
-      <c r="AJ45" s="14"/>
-      <c r="AK45" s="14"/>
-    </row>
-    <row r="46" spans="1:44" ht="17.45" customHeight="1"/>
-    <row r="47" spans="1:44" ht="17.45" customHeight="1"/>
-    <row r="48" spans="1:44" ht="17.45" customHeight="1">
-      <c r="A48" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-    </row>
-    <row r="49" spans="1:14" ht="17.45" customHeight="1">
-      <c r="A49" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="M49" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="N49" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="17.45" customHeight="1">
-      <c r="A50" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F50" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="H50" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="I50" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="J50" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="K50" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="L50" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="M50" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="N50" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="30" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A51" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" s="55">
-        <v>1</v>
-      </c>
-      <c r="C51" s="56">
-        <v>1</v>
-      </c>
-      <c r="D51" s="56">
-        <v>1</v>
-      </c>
-      <c r="E51" s="56">
-        <v>1</v>
-      </c>
-      <c r="F51" s="56">
-        <v>0</v>
-      </c>
-      <c r="G51" s="72">
-        <v>0</v>
-      </c>
-      <c r="H51" s="67">
-        <v>1</v>
-      </c>
-      <c r="I51" s="67">
-        <v>0</v>
-      </c>
-      <c r="J51" s="67">
-        <v>0</v>
-      </c>
-      <c r="K51" s="67">
-        <v>0</v>
-      </c>
-      <c r="L51" s="56">
-        <v>1</v>
-      </c>
-      <c r="M51" s="56">
-        <v>0</v>
-      </c>
-      <c r="N51" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="30" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A52" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="62">
-        <v>2147483647</v>
-      </c>
-      <c r="C52" s="62">
-        <v>2147483647</v>
-      </c>
-      <c r="D52" s="62">
-        <v>2147483647</v>
-      </c>
-      <c r="E52" s="62">
-        <v>2147483647</v>
-      </c>
-      <c r="F52" s="56">
-        <v>1</v>
-      </c>
-      <c r="G52" s="72"/>
-      <c r="H52" s="67">
-        <v>255</v>
-      </c>
-      <c r="I52" s="67">
-        <v>255</v>
-      </c>
-      <c r="J52" s="61">
-        <v>65535</v>
-      </c>
-      <c r="K52" s="61">
-        <v>65535</v>
-      </c>
-      <c r="L52" s="56">
-        <v>11</v>
-      </c>
-      <c r="M52" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="N52" s="61">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="17.45" customHeight="1">
-      <c r="A53" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="M53" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="17.45" customHeight="1">
-      <c r="A54" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="17.45" customHeight="1">
-      <c r="A55" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="17.45" customHeight="1"/>
-    <row r="57" spans="1:14" ht="17.45" customHeight="1">
-      <c r="B57" s="52"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-    </row>
-    <row r="58" spans="1:14" ht="17.45" customHeight="1">
-      <c r="B58" s="52"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-    </row>
-    <row r="59" spans="1:14" ht="17.45" customHeight="1"/>
-    <row r="60" spans="1:14" ht="17.45" customHeight="1"/>
-    <row r="61" spans="1:14" ht="17.45" customHeight="1"/>
-    <row r="62" spans="1:14" ht="17.45" customHeight="1"/>
-    <row r="63" spans="1:14" ht="17.45" customHeight="1"/>
-    <row r="64" spans="1:14" ht="17.45" customHeight="1"/>
-    <row r="65" ht="17.45" customHeight="1"/>
-    <row r="66" ht="17.45" customHeight="1"/>
-    <row r="67" ht="17.45" customHeight="1"/>
-    <row r="68" ht="17.45" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>